--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Lama2</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lama2</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.227606333333333</v>
+        <v>5.258836</v>
       </c>
       <c r="H2">
-        <v>3.682818999999999</v>
+        <v>15.776508</v>
       </c>
       <c r="I2">
-        <v>0.01106481154386902</v>
+        <v>0.0979781472915271</v>
       </c>
       <c r="J2">
-        <v>0.01106481154386902</v>
+        <v>0.09797814729152711</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>116.3768974866563</v>
+        <v>930.0519526400373</v>
       </c>
       <c r="R2">
-        <v>1047.392077379907</v>
+        <v>8370.467573760336</v>
       </c>
       <c r="S2">
-        <v>0.001861060994546995</v>
+        <v>0.02615733078871561</v>
       </c>
       <c r="T2">
-        <v>0.001861060994546996</v>
+        <v>0.02615733078871561</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.227606333333333</v>
+        <v>5.258836</v>
       </c>
       <c r="H3">
-        <v>3.682818999999999</v>
+        <v>15.776508</v>
       </c>
       <c r="I3">
-        <v>0.01106481154386902</v>
+        <v>0.0979781472915271</v>
       </c>
       <c r="J3">
-        <v>0.01106481154386902</v>
+        <v>0.09797814729152711</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>178.7902592048968</v>
+        <v>765.9040410805226</v>
       </c>
       <c r="R3">
-        <v>1609.112332844072</v>
+        <v>6893.136369724703</v>
       </c>
       <c r="S3">
-        <v>0.002859154907865902</v>
+        <v>0.02154073791048866</v>
       </c>
       <c r="T3">
-        <v>0.002859154907865903</v>
+        <v>0.02154073791048866</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.227606333333333</v>
+        <v>5.258836</v>
       </c>
       <c r="H4">
-        <v>3.682818999999999</v>
+        <v>15.776508</v>
       </c>
       <c r="I4">
-        <v>0.01106481154386902</v>
+        <v>0.0979781472915271</v>
       </c>
       <c r="J4">
-        <v>0.01106481154386902</v>
+        <v>0.09797814729152711</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>89.34024250488088</v>
+        <v>441.8742909014133</v>
       </c>
       <c r="R4">
-        <v>804.0621825439279</v>
+        <v>3976.86861811272</v>
       </c>
       <c r="S4">
-        <v>0.001428699717555776</v>
+        <v>0.01242753371070106</v>
       </c>
       <c r="T4">
-        <v>0.001428699717555776</v>
+        <v>0.01242753371070107</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.227606333333333</v>
+        <v>5.258836</v>
       </c>
       <c r="H5">
-        <v>3.682818999999999</v>
+        <v>15.776508</v>
       </c>
       <c r="I5">
-        <v>0.01106481154386902</v>
+        <v>0.0979781472915271</v>
       </c>
       <c r="J5">
-        <v>0.01106481154386902</v>
+        <v>0.09797814729152711</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>142.2008742373139</v>
+        <v>446.6265029117907</v>
       </c>
       <c r="R5">
-        <v>1279.807868135825</v>
+        <v>4019.638526206116</v>
       </c>
       <c r="S5">
-        <v>0.002274029520884001</v>
+        <v>0.01256118772989935</v>
       </c>
       <c r="T5">
-        <v>0.002274029520884001</v>
+        <v>0.01256118772989935</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.227606333333333</v>
+        <v>5.258836</v>
       </c>
       <c r="H6">
-        <v>3.682818999999999</v>
+        <v>15.776508</v>
       </c>
       <c r="I6">
-        <v>0.01106481154386902</v>
+        <v>0.0979781472915271</v>
       </c>
       <c r="J6">
-        <v>0.01106481154386902</v>
+        <v>0.09797814729152711</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>71.43058977054464</v>
+        <v>336.4131222151186</v>
       </c>
       <c r="R6">
-        <v>642.8753079349019</v>
+        <v>3027.718099936068</v>
       </c>
       <c r="S6">
-        <v>0.001142294452854706</v>
+        <v>0.009461481473660481</v>
       </c>
       <c r="T6">
-        <v>0.001142294452854706</v>
+        <v>0.009461481473660483</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.227606333333333</v>
+        <v>5.258836</v>
       </c>
       <c r="H7">
-        <v>3.682818999999999</v>
+        <v>15.776508</v>
       </c>
       <c r="I7">
-        <v>0.01106481154386902</v>
+        <v>0.0979781472915271</v>
       </c>
       <c r="J7">
-        <v>0.01106481154386902</v>
+        <v>0.09797814729152711</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>93.77206423065444</v>
+        <v>562.8482089151827</v>
       </c>
       <c r="R7">
-        <v>843.9485780758899</v>
+        <v>5065.633880236644</v>
       </c>
       <c r="S7">
-        <v>0.00149957195016164</v>
+        <v>0.01582987567806194</v>
       </c>
       <c r="T7">
-        <v>0.00149957195016164</v>
+        <v>0.01582987567806194</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>103.0872</v>
       </c>
       <c r="I8">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="J8">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>3257.5504000024</v>
+        <v>6077.165596606934</v>
       </c>
       <c r="R8">
-        <v>29317.9536000216</v>
+        <v>54694.4903694624</v>
       </c>
       <c r="S8">
-        <v>0.052093672525602</v>
+        <v>0.1709177969220111</v>
       </c>
       <c r="T8">
-        <v>0.05209367252560201</v>
+        <v>0.1709177969220111</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>103.0872</v>
       </c>
       <c r="I9">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="J9">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>5004.586760497066</v>
@@ -1013,10 +1013,10 @@
         <v>45041.28084447359</v>
       </c>
       <c r="S9">
-        <v>0.08003170229602755</v>
+        <v>0.1407519558273685</v>
       </c>
       <c r="T9">
-        <v>0.08003170229602757</v>
+        <v>0.1407519558273685</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>103.0872</v>
       </c>
       <c r="I10">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="J10">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>2500.757014436267</v>
+        <v>2887.304554405333</v>
       </c>
       <c r="R10">
-        <v>22506.8131299264</v>
+        <v>25985.740989648</v>
       </c>
       <c r="S10">
-        <v>0.03999128209222767</v>
+        <v>0.08120425972222642</v>
       </c>
       <c r="T10">
-        <v>0.03999128209222767</v>
+        <v>0.08120425972222642</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>103.0872</v>
       </c>
       <c r="I11">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="J11">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>3980.399243806667</v>
+        <v>2918.356560968267</v>
       </c>
       <c r="R11">
-        <v>35823.59319426</v>
+        <v>26265.2090487144</v>
       </c>
       <c r="S11">
-        <v>0.06365323303297643</v>
+        <v>0.08207758470693767</v>
       </c>
       <c r="T11">
-        <v>0.06365323303297643</v>
+        <v>0.08207758470693767</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1169,10 +1169,10 @@
         <v>103.0872</v>
       </c>
       <c r="I12">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="J12">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>1999.4410514864</v>
+        <v>2198.197903643467</v>
       </c>
       <c r="R12">
-        <v>17994.9694633776</v>
+        <v>19783.7811327912</v>
       </c>
       <c r="S12">
-        <v>0.0319744024130221</v>
+        <v>0.06182341700530516</v>
       </c>
       <c r="T12">
-        <v>0.03197440241302211</v>
+        <v>0.06182341700530516</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>103.0872</v>
       </c>
       <c r="I13">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="J13">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>2624.809837181333</v>
+        <v>3677.774947541067</v>
       </c>
       <c r="R13">
-        <v>23623.288534632</v>
+        <v>33099.9745278696</v>
       </c>
       <c r="S13">
-        <v>0.04197509395403441</v>
+        <v>0.1034359162369459</v>
       </c>
       <c r="T13">
-        <v>0.04197509395403441</v>
+        <v>0.1034359162369459</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.04110466666666667</v>
+        <v>14.03809866666666</v>
       </c>
       <c r="H14">
-        <v>0.123314</v>
+        <v>42.114296</v>
       </c>
       <c r="I14">
-        <v>0.0003704896088351517</v>
+        <v>0.2615458817988727</v>
       </c>
       <c r="J14">
-        <v>0.0003704896088351518</v>
+        <v>0.2615458817988728</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>3.896716275404667</v>
+        <v>2482.70930606827</v>
       </c>
       <c r="R14">
-        <v>35.070446478642</v>
+        <v>22344.38375461443</v>
       </c>
       <c r="S14">
-        <v>6.231500257861388E-05</v>
+        <v>0.0698251838369988</v>
       </c>
       <c r="T14">
-        <v>6.231500257861389E-05</v>
+        <v>0.06982518383699882</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.04110466666666667</v>
+        <v>14.03809866666666</v>
       </c>
       <c r="H15">
-        <v>0.123314</v>
+        <v>42.114296</v>
       </c>
       <c r="I15">
-        <v>0.0003704896088351517</v>
+        <v>0.2615458817988727</v>
       </c>
       <c r="J15">
-        <v>0.0003704896088351518</v>
+        <v>0.2615458817988728</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>5.986539665292445</v>
+        <v>2044.527819062449</v>
       </c>
       <c r="R15">
-        <v>53.878856987632</v>
+        <v>18400.75037156204</v>
       </c>
       <c r="S15">
-        <v>9.573476956336326E-05</v>
+        <v>0.05750150872555199</v>
       </c>
       <c r="T15">
-        <v>9.57347695633633E-05</v>
+        <v>0.057501508725552</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.04110466666666667</v>
+        <v>14.03809866666666</v>
       </c>
       <c r="H16">
-        <v>0.123314</v>
+        <v>42.114296</v>
       </c>
       <c r="I16">
-        <v>0.0003704896088351517</v>
+        <v>0.2615458817988727</v>
       </c>
       <c r="J16">
-        <v>0.0003704896088351518</v>
+        <v>0.2615458817988728</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>2.991432015596445</v>
+        <v>1179.552831451182</v>
       </c>
       <c r="R16">
-        <v>26.922888140368</v>
+        <v>10615.97548306064</v>
       </c>
       <c r="S16">
-        <v>4.783799501704346E-05</v>
+        <v>0.03317444096262893</v>
       </c>
       <c r="T16">
-        <v>4.783799501704347E-05</v>
+        <v>0.03317444096262893</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.04110466666666667</v>
+        <v>14.03809866666666</v>
       </c>
       <c r="H17">
-        <v>0.123314</v>
+        <v>42.114296</v>
       </c>
       <c r="I17">
-        <v>0.0003704896088351517</v>
+        <v>0.2615458817988727</v>
       </c>
       <c r="J17">
-        <v>0.0003704896088351518</v>
+        <v>0.2615458817988728</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>4.761395714994445</v>
+        <v>1192.238532447866</v>
       </c>
       <c r="R17">
-        <v>42.85256143495</v>
+        <v>10730.14679203079</v>
       </c>
       <c r="S17">
-        <v>7.614267123589014E-05</v>
+        <v>0.03353122111487213</v>
       </c>
       <c r="T17">
-        <v>7.614267123589017E-05</v>
+        <v>0.03353122111487213</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.04110466666666667</v>
+        <v>14.03809866666666</v>
       </c>
       <c r="H18">
-        <v>0.123314</v>
+        <v>42.114296</v>
       </c>
       <c r="I18">
-        <v>0.0003704896088351517</v>
+        <v>0.2615458817988727</v>
       </c>
       <c r="J18">
-        <v>0.0003704896088351518</v>
+        <v>0.2615458817988728</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>2.391752553401334</v>
+        <v>898.031542040335</v>
       </c>
       <c r="R18">
-        <v>21.525772980612</v>
+        <v>8082.283878363015</v>
       </c>
       <c r="S18">
-        <v>3.824811867195353E-05</v>
+        <v>0.02525676983653503</v>
       </c>
       <c r="T18">
-        <v>3.824811867195353E-05</v>
+        <v>0.02525676983653504</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.04110466666666667</v>
+        <v>14.03809866666666</v>
       </c>
       <c r="H19">
-        <v>0.123314</v>
+        <v>42.114296</v>
       </c>
       <c r="I19">
-        <v>0.0003704896088351517</v>
+        <v>0.2615458817988727</v>
       </c>
       <c r="J19">
-        <v>0.0003704896088351518</v>
+        <v>0.2615458817988728</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>3.139825315482223</v>
+        <v>1502.484331344036</v>
       </c>
       <c r="R19">
-        <v>28.25842783934</v>
+        <v>13522.35898209633</v>
       </c>
       <c r="S19">
-        <v>5.021105176828742E-05</v>
+        <v>0.04225675732228584</v>
       </c>
       <c r="T19">
-        <v>5.021105176828743E-05</v>
+        <v>0.04225675732228585</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>75.23876733333334</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H20">
-        <v>225.716302</v>
+        <v>0.042677</v>
       </c>
       <c r="I20">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="J20">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>7132.623932623667</v>
+        <v>2.515881662964889</v>
       </c>
       <c r="R20">
-        <v>64193.615393613</v>
+        <v>22.642934966684</v>
       </c>
       <c r="S20">
-        <v>0.1140625714936276</v>
+        <v>7.075814280764894E-05</v>
       </c>
       <c r="T20">
-        <v>0.1140625714936276</v>
+        <v>7.075814280764894E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>75.23876733333334</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H21">
-        <v>225.716302</v>
+        <v>0.042677</v>
       </c>
       <c r="I21">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="J21">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>10957.87659978695</v>
+        <v>2.071845478175111</v>
       </c>
       <c r="R21">
-        <v>98620.88939808258</v>
+        <v>18.646609303576</v>
       </c>
       <c r="S21">
-        <v>0.1752347515988818</v>
+        <v>5.826980671552441E-05</v>
       </c>
       <c r="T21">
-        <v>0.1752347515988819</v>
+        <v>5.826980671552441E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>75.23876733333334</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H22">
-        <v>225.716302</v>
+        <v>0.042677</v>
       </c>
       <c r="I22">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="J22">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>5475.574324446826</v>
+        <v>1.195313253908889</v>
       </c>
       <c r="R22">
-        <v>49280.16892002142</v>
+        <v>10.75781928518</v>
       </c>
       <c r="S22">
-        <v>0.08756358021263991</v>
+        <v>3.361769639844187E-05</v>
       </c>
       <c r="T22">
-        <v>0.08756358021263991</v>
+        <v>3.361769639844187E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>75.23876733333334</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H23">
-        <v>225.716302</v>
+        <v>0.042677</v>
       </c>
       <c r="I23">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="J23">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>8715.349701957541</v>
+        <v>1.208168453042111</v>
       </c>
       <c r="R23">
-        <v>78438.14731761786</v>
+        <v>10.873516077379</v>
       </c>
       <c r="S23">
-        <v>0.1393730004360161</v>
+        <v>3.397924361645267E-05</v>
       </c>
       <c r="T23">
-        <v>0.1393730004360162</v>
+        <v>3.397924361645267E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>75.23876733333334</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H24">
-        <v>225.716302</v>
+        <v>0.042677</v>
       </c>
       <c r="I24">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="J24">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>4377.909577605191</v>
+        <v>0.9100304590074444</v>
       </c>
       <c r="R24">
-        <v>39401.18619844672</v>
+        <v>8.190274131067</v>
       </c>
       <c r="S24">
-        <v>0.07001008729820216</v>
+        <v>2.559423446883229E-05</v>
       </c>
       <c r="T24">
-        <v>0.07001008729820217</v>
+        <v>2.559423446883229E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>75.23876733333334</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H25">
-        <v>225.716302</v>
+        <v>0.042677</v>
       </c>
       <c r="I25">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="J25">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>5747.196256196626</v>
+        <v>1.522559555756778</v>
       </c>
       <c r="R25">
-        <v>51724.76630576963</v>
+        <v>13.703036001811</v>
       </c>
       <c r="S25">
-        <v>0.09190726863671925</v>
+        <v>4.282136479838564E-05</v>
       </c>
       <c r="T25">
-        <v>0.09190726863671926</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.077003</v>
-      </c>
-      <c r="H26">
-        <v>0.231009</v>
-      </c>
-      <c r="I26">
-        <v>0.0006940528573187113</v>
-      </c>
-      <c r="J26">
-        <v>0.0006940528573187114</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>94.79985099999999</v>
-      </c>
-      <c r="N26">
-        <v>284.399553</v>
-      </c>
-      <c r="O26">
-        <v>0.1681963571786456</v>
-      </c>
-      <c r="P26">
-        <v>0.1681963571786456</v>
-      </c>
-      <c r="Q26">
-        <v>7.299872926552999</v>
-      </c>
-      <c r="R26">
-        <v>65.698856338977</v>
-      </c>
-      <c r="S26">
-        <v>0.0001167371622904375</v>
-      </c>
-      <c r="T26">
-        <v>0.0001167371622904376</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.077003</v>
-      </c>
-      <c r="H27">
-        <v>0.231009</v>
-      </c>
-      <c r="I27">
-        <v>0.0006940528573187113</v>
-      </c>
-      <c r="J27">
-        <v>0.0006940528573187114</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>145.6413626666667</v>
-      </c>
-      <c r="N27">
-        <v>436.924088</v>
-      </c>
-      <c r="O27">
-        <v>0.2584006873076977</v>
-      </c>
-      <c r="P27">
-        <v>0.2584006873076977</v>
-      </c>
-      <c r="Q27">
-        <v>11.21482184942133</v>
-      </c>
-      <c r="R27">
-        <v>100.933396644792</v>
-      </c>
-      <c r="S27">
-        <v>0.0001793437353590264</v>
-      </c>
-      <c r="T27">
-        <v>0.0001793437353590265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.077003</v>
-      </c>
-      <c r="H28">
-        <v>0.231009</v>
-      </c>
-      <c r="I28">
-        <v>0.0006940528573187113</v>
-      </c>
-      <c r="J28">
-        <v>0.0006940528573187114</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>72.77597066666667</v>
-      </c>
-      <c r="N28">
-        <v>218.327912</v>
-      </c>
-      <c r="O28">
-        <v>0.1291210168281098</v>
-      </c>
-      <c r="P28">
-        <v>0.1291210168281098</v>
-      </c>
-      <c r="Q28">
-        <v>5.603968069245333</v>
-      </c>
-      <c r="R28">
-        <v>50.435712623208</v>
-      </c>
-      <c r="S28">
-        <v>8.961681066944703E-05</v>
-      </c>
-      <c r="T28">
-        <v>8.961681066944705E-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.077003</v>
-      </c>
-      <c r="H29">
-        <v>0.231009</v>
-      </c>
-      <c r="I29">
-        <v>0.0006940528573187113</v>
-      </c>
-      <c r="J29">
-        <v>0.0006940528573187114</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>115.8358916666667</v>
-      </c>
-      <c r="N29">
-        <v>347.507675</v>
-      </c>
-      <c r="O29">
-        <v>0.2055190467427377</v>
-      </c>
-      <c r="P29">
-        <v>0.2055190467427377</v>
-      </c>
-      <c r="Q29">
-        <v>8.919711166008334</v>
-      </c>
-      <c r="R29">
-        <v>80.27740049407501</v>
-      </c>
-      <c r="S29">
-        <v>0.0001426410816252149</v>
-      </c>
-      <c r="T29">
-        <v>0.0001426410816252149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.077003</v>
-      </c>
-      <c r="H30">
-        <v>0.231009</v>
-      </c>
-      <c r="I30">
-        <v>0.0006940528573187113</v>
-      </c>
-      <c r="J30">
-        <v>0.0006940528573187114</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>58.18688599999999</v>
-      </c>
-      <c r="N30">
-        <v>174.560658</v>
-      </c>
-      <c r="O30">
-        <v>0.10323668399826</v>
-      </c>
-      <c r="P30">
-        <v>0.10323668399826</v>
-      </c>
-      <c r="Q30">
-        <v>4.480564782658</v>
-      </c>
-      <c r="R30">
-        <v>40.325083043922</v>
-      </c>
-      <c r="S30">
-        <v>7.165171550910125E-05</v>
-      </c>
-      <c r="T30">
-        <v>7.165171550910126E-05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.077003</v>
-      </c>
-      <c r="H31">
-        <v>0.231009</v>
-      </c>
-      <c r="I31">
-        <v>0.0006940528573187113</v>
-      </c>
-      <c r="J31">
-        <v>0.0006940528573187114</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>76.38610333333334</v>
-      </c>
-      <c r="N31">
-        <v>229.15831</v>
-      </c>
-      <c r="O31">
-        <v>0.1355262079445491</v>
-      </c>
-      <c r="P31">
-        <v>0.1355262079445491</v>
-      </c>
-      <c r="Q31">
-        <v>5.881959114976667</v>
-      </c>
-      <c r="R31">
-        <v>52.93763203479001</v>
-      </c>
-      <c r="S31">
-        <v>9.40623518654841E-05</v>
-      </c>
-      <c r="T31">
-        <v>9.406235186548413E-05</v>
+        <v>4.282136479838564E-05</v>
       </c>
     </row>
   </sheetData>
